--- a/curation/draft/package15/R15_SDTM_RS_Edits.xlsx
+++ b/curation/draft/package15/R15_SDTM_RS_Edits.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cdisc-my.sharepoint.com/personal/llander_cdisc_org/Documents/Documents/CDISC/Package 14_15/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Linda\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{4AC042D0-D1AB-44AF-AA37-401C492652F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DDD8E012-6D5D-4BF2-8455-C34810816DBD}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B206C075-46F7-4AEF-B0AC-1223E5F562F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{F44DB388-D089-478E-9D8D-45EBC8B715DA}"/>
   </bookViews>
@@ -814,7 +814,7 @@
   <dimension ref="A1:AG14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AG2" sqref="AG2"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
@@ -2056,15 +2056,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Description0 xmlns="3dc215b4-4765-4137-95ef-e24fb8216673">Data and Metadata documentation will explain structure and content any QC manipulations that have been done to the data.</Description0>
@@ -2076,14 +2067,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D81919-1E13-43F9-9F45-BD4C817A96D9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0D81919-1E13-43F9-9F45-BD4C817A96D9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F95B8F15-0E37-4E86-94DD-9688E873C7D7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B72569-29CD-4B0F-9143-9ACBA9A7B38B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="3dc215b4-4765-4137-95ef-e24fb8216673"/>
+    <ds:schemaRef ds:uri="2634c873-c79e-4fdd-b8bf-a33e5fa5c27f"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B5B72569-29CD-4B0F-9143-9ACBA9A7B38B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F95B8F15-0E37-4E86-94DD-9688E873C7D7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>